--- a/list of plant orders.xlsx
+++ b/list of plant orders.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="apg 4 flowering plants" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="1191">
   <si>
     <t>Division Streptophyta</t>
   </si>
@@ -3335,6 +3336,258 @@
   </si>
   <si>
     <t>'Ophioglossales (Adders tongues, moonworts)'</t>
+  </si>
+  <si>
+    <t>Families of flowering plants (APG IV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Supergroup Plant: Bryophyta Marchantiophyta Polypodiophyta Acrogymnospermae Angiospermae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Austrobaileyaceae Trimeniaceae Schisandraceae</t>
+  </si>
+  <si>
+    <t>Mesangiospermae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Canellaceae Winteraceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Aristolochiaceae Saururaceae Piperaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Myristicaceae Magnoliaceae Degeneriaceae Himantandraceae Eupomatiaceae Annonaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Calycanthaceae Siparunaceae Gomortegaceae Atherospermataceae Hernandiaceae Monimiaceae Lauraceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chloranthaceae</t>
+  </si>
+  <si>
+    <t>Lilidae</t>
+  </si>
+  <si>
+    <t>(Monocots)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Acoraceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Araceae Tofieldiaceae Alismataceae Butomaceae Hydrocharitaceae Scheuchzeriaceae Aponogetonaceae Juncaginaceae Maundiaceae Zosteraceae Potamogetonaceae Posidoniaceae Ruppiaceae Cymodoceaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Petrosaviaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Nartheciaceae Burmanniaceae Dioscoreaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Triuridaceae Velloziaceae Stemonaceae Cyclanthaceae Pandanaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Campynemataceae Corsiaceae Melanthiaceae Petermanniaceae Alstroemeriaceae Colchicaceae Philesiaceae Ripogonaceae Smilacaceae Liliaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Orchidaceae Boryaceae Blandfordiaceae Asteliaceae Lanariaceae Hypoxidaceae Doryanthaceae Ixioliriaceae Tecophilaeaceae Iridaceae Xeronemataceae Asphodelaceae Amaryllidaceae Asparagaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dasypogonaceae Arecaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Hanguanaceae Commelinaceae Philydraceae Pontederiaceae Haemodoraceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Strelitziaceae Lowiaceae Heliconiaceae Musaceae Cannaceae Marantaceae Costaceae Zingiberaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Typhaceae Bromeliaceae Rapateaceae Xyridaceae Eriocaulaceae Mayacaceae Thurniaceae Juncaceae Cyperaceae Restionaceae Flagellariaceae Joinvilleaceae Ecdeiocoleaceae Poaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ceratophyllaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Buxaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Sabiaceae Nelumbonaceae Platanaceae Proteaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Eupteleaceae Papaveraceae Circaeasteraceae Lardizabalaceae Menispermaceae Berberidaceae Ranunculaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Trochodendraceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dilleniaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Myrothamnaceae Gunneraceae</t>
+  </si>
+  <si>
+    <t>Superrosids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Peridiscaceae Paeoniaceae Altingiaceae Hamamelidaceae Cercidiphyllaceae Daphniphyllaceae Iteaceae Grossulariaceae Saxifragaceae Crassulaceae Aphanopetalaceae Tetracarpaeaceae Penthoraceae Haloragaceae Cynomoriaceae</t>
+  </si>
+  <si>
+    <t>Rosids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Vitaceae</t>
+  </si>
+  <si>
+    <t>Fabids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Apodanthaceae Anisophylleaceae Corynocarpaceae Coriariaceae Cucurbitaceae Tetramelaceae Datiscaceae Begoniaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Quillajaceae Fabaceae Surianaceae Polygalaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Nothofagaceae Fagaceae Myricaceae Juglandaceae Casuarinaceae Ticodendraceae Betulaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Rosaceae Barbeyaceae Dirachmaceae Elaeagnaceae Rhamnaceae Ulmaceae Cannabaceae Moraceae Urticaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Krameriaceae Zygophyllaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Lepidobotryaceae Celastraceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Pandaceae Irvingiaceae Ctenolophonaceae Rhizophoraceae Erythroxylaceae Ochnaceae Bonnetiaceae Clusiaceae Calophyllaceae Podostemaceae Hypericaceae Caryocaraceae Lophopyxidaceae Putranjivaceae Centroplacaceae Elatinaceae Malpighiaceae Balanopaceae Trigoniaceae Dichapetalaceae Euphroniaceae Chrysobalanaceae Humiriaceae Achariaceae Violaceae Goupiaceae Passifloraceae Lacistemataceae Salicaceae Peraceae Rafflesiaceae Euphorbiaceae Linaceae Ixonanthaceae Picrodendraceae Phyllanthaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Huaceae Connaraceae Oxalidaceae Cunoniaceae Elaeocarpaceae Cephalotaceae Brunelliaceae</t>
+  </si>
+  <si>
+    <t>Malvids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Akaniaceae Tropaeolaceae Moringaceae Caricaceae Limnanthaceae Setchellanthaceae Koeberliniaceae Bataceae Salvadoraceae Emblingiaceae Tovariaceae Pentadiplandraceae Gyrostemonaceae Resedaceae Capparaceae Cleomaceae Brassicaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Aphloiaceae Geissolomataceae Strasburgeriaceae Staphyleaceae Guamatelaceae Stachyuraceae Crossosomataceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Geraniaceae Francoaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Gerrardinaceae Petenaeaceae Tapisciaceae Dipentodontaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Cytinaceae Muntingiaceae Neuradaceae Malvaceae Sphaerosepalaceae Thymelaeaceae Bixaceae Cistaceae Sarcolaenaceae Dipterocarpaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Combretaceae Lythraceae Onagraceae Vochysiaceae Myrtaceae Melastomataceae Crypteroniaceae Alzateaceae Penaeaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Picramniaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Biebersteiniaceae Nitrariaceae Kirkiaceae Burseraceae Anacardiaceae Sapindaceae Rutaceae Simaroubaceae Meliaceae</t>
+  </si>
+  <si>
+    <t>Superasterids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Aextoxicaceae Berberidopsidaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Frankeniaceae Tamaricaceae Plumbaginaceae Polygonaceae Droseraceae Nepenthaceae Drosophyllaceae Dioncophyllaceae Ancistrocladaceae Rhabdodendraceae Simmondsiaceae Physenaceae Asteropeiaceae Macarthuriaceae Microteaceae Caryophyllaceae Achatocarpaceae Amaranthaceae Stegnospermataceae Limeaceae Lophiocarpaceae Kewaceae Barbeuiaceae Gisekiaceae Aizoaceae Phytolaccaceae Petiveriaceae Sarcobataceae Nyctaginaceae Molluginaceae Montiaceae Didiereaceae Basellaceae Halophytaceae Talinaceae Portulacaceae Anacampserotaceae Cactaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Olacaceae Opiliaceae Balanophoraceae Santalaceae Misodendraceae Schoepfiaceae Loranthaceae</t>
+  </si>
+  <si>
+    <t>Asterids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Nyssaceae Hydrostachyaceae Hydrangeaceae Loasaceae Curtisiaceae Grubbiaceae Cornaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Balsaminaceae Marcgraviaceae Tetrameristaceae Fouquieriaceae Polemoniaceae Lecythidaceae Sladeniaceae Pentaphylacaceae Sapotaceae Ebenaceae Primulaceae Theaceae Symplocaceae Diapensiaceae Styracaceae Sarraceniaceae Roridulaceae Actinidiaceae Clethraceae Cyrillaceae Ericaceae Mitrastemonaceae</t>
+  </si>
+  <si>
+    <t>Lamiids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Oncothecaceae Icacinaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Metteniusaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Eucommiaceae Garryaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Rubiaceae Gentianaceae Loganiaceae Gelsemiaceae Apocynaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Boraginaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Vahliaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Convolvulaceae Solanaceae Montiniaceae Sphenocleaceae Hydroleaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Plocospermataceae Carlemanniaceae Oleaceae Tetrachondraceae Calceolariaceae Gesneriaceae Plantaginaceae Scrophulariaceae Stilbaceae Linderniaceae Byblidaceae Martyniaceae Pedaliaceae Acanthaceae Bignoniaceae Lentibulariaceae Schlegeliaceae Thomandersiaceae Verbenaceae Lamiaceae Mazaceae Phrymaceae Paulowniaceae Orobanchaceae</t>
+  </si>
+  <si>
+    <t>Campanulids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Pennantiaceae Torricelliaceae Griseliniaceae Pittosporaceae Araliaceae Myodocarpaceae Apiaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Stemonuraceae Cardiopteridaceae Phyllonomaceae Helwingiaceae Aquifoliaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Rousseaceae Campanulaceae Pentaphragmataceae Stylidiaceae Alseuosmiaceae Phellinaceae Argophyllaceae Menyanthaceae Goodeniaceae Calyceraceae Asteraceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Columelliaceae Bruniaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Adoxaceae Caprifoliaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Escalloniaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Paracryphiaceae</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Tracheophytes</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Amborellaceae</t>
+  </si>
+  <si>
+    <t>Angiosperms</t>
+  </si>
+  <si>
+    <t>Hydatellaceae</t>
+  </si>
+  <si>
+    <t>Cabombaceae</t>
+  </si>
+  <si>
+    <t>Nymphaeaceae</t>
   </si>
 </sst>
 </file>
@@ -3709,8 +3962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B116" workbookViewId="0">
-      <selection activeCell="D148" sqref="D148"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6211,7 +6464,7 @@
         <v>831</v>
       </c>
       <c r="E90" t="str">
-        <f>E89</f>
+        <f t="shared" ref="E90:E96" si="4">E89</f>
         <v>'Dicranidae (Haplolepideous mosses)'</v>
       </c>
       <c r="F90" t="str">
@@ -6237,7 +6490,7 @@
         <v>832</v>
       </c>
       <c r="E91" t="str">
-        <f>E90</f>
+        <f t="shared" si="4"/>
         <v>'Dicranidae (Haplolepideous mosses)'</v>
       </c>
       <c r="F91" t="str">
@@ -6263,7 +6516,7 @@
         <v>833</v>
       </c>
       <c r="E92" t="str">
-        <f>E91</f>
+        <f t="shared" si="4"/>
         <v>'Dicranidae (Haplolepideous mosses)'</v>
       </c>
       <c r="F92" t="str">
@@ -6289,7 +6542,7 @@
         <v>834</v>
       </c>
       <c r="E93" t="str">
-        <f>E92</f>
+        <f t="shared" si="4"/>
         <v>'Dicranidae (Haplolepideous mosses)'</v>
       </c>
       <c r="F93" t="str">
@@ -6315,7 +6568,7 @@
         <v>835</v>
       </c>
       <c r="E94" t="str">
-        <f>E93</f>
+        <f t="shared" si="4"/>
         <v>'Dicranidae (Haplolepideous mosses)'</v>
       </c>
       <c r="F94" t="str">
@@ -6341,7 +6594,7 @@
         <v>836</v>
       </c>
       <c r="E95" t="str">
-        <f>E94</f>
+        <f t="shared" si="4"/>
         <v>'Dicranidae (Haplolepideous mosses)'</v>
       </c>
       <c r="F95" t="str">
@@ -6367,7 +6620,7 @@
         <v>837</v>
       </c>
       <c r="E96" t="str">
-        <f>E95</f>
+        <f t="shared" si="4"/>
         <v>'Dicranidae (Haplolepideous mosses)'</v>
       </c>
       <c r="F96" t="str">
@@ -6471,7 +6724,7 @@
         <v>841</v>
       </c>
       <c r="E100" t="str">
-        <f>E99</f>
+        <f t="shared" ref="E100:E106" si="5">E99</f>
         <v>'Bryanae'</v>
       </c>
       <c r="F100" t="str">
@@ -6497,7 +6750,7 @@
         <v>842</v>
       </c>
       <c r="E101" t="str">
-        <f>E100</f>
+        <f t="shared" si="5"/>
         <v>'Bryanae'</v>
       </c>
       <c r="F101" t="str">
@@ -6523,7 +6776,7 @@
         <v>843</v>
       </c>
       <c r="E102" t="str">
-        <f>E101</f>
+        <f t="shared" si="5"/>
         <v>'Bryanae'</v>
       </c>
       <c r="F102" t="str">
@@ -6549,7 +6802,7 @@
         <v>844</v>
       </c>
       <c r="E103" t="str">
-        <f>E102</f>
+        <f t="shared" si="5"/>
         <v>'Bryanae'</v>
       </c>
       <c r="F103" t="str">
@@ -6575,7 +6828,7 @@
         <v>845</v>
       </c>
       <c r="E104" t="str">
-        <f>E103</f>
+        <f t="shared" si="5"/>
         <v>'Bryanae'</v>
       </c>
       <c r="F104" t="str">
@@ -6601,7 +6854,7 @@
         <v>846</v>
       </c>
       <c r="E105" t="str">
-        <f>E104</f>
+        <f t="shared" si="5"/>
         <v>'Bryanae'</v>
       </c>
       <c r="F105" t="str">
@@ -6627,7 +6880,7 @@
         <v>847</v>
       </c>
       <c r="E106" t="str">
-        <f>E105</f>
+        <f t="shared" si="5"/>
         <v>'Bryanae'</v>
       </c>
       <c r="F106" t="str">
@@ -7281,11 +7534,11 @@
         <v>'Lycopodiopsida'</v>
       </c>
       <c r="F131" t="str">
-        <f t="shared" ref="F131:F194" si="4">IF(B131="Order","false","true")</f>
+        <f t="shared" ref="F131:F194" si="6">IF(B131="Order","false","true")</f>
         <v>true</v>
       </c>
       <c r="G131" s="3" t="str">
-        <f t="shared" ref="G131:G194" si="5">CONCATENATE("{title:",D131,", level:'",B131,"'",", parent_name:",E131,", has_children:",F131,"},")</f>
+        <f t="shared" ref="G131:G194" si="7">CONCATENATE("{title:",D131,", level:'",B131,"'",", parent_name:",E131,", has_children:",F131,"},")</f>
         <v>{title:'†Asteroxylidae', level:'Subclass', parent_name:'Lycopodiopsida', has_children:true},</v>
       </c>
     </row>
@@ -7307,11 +7560,11 @@
         <v>'†Asteroxylidae'</v>
       </c>
       <c r="F132" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G132" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'?†Thursophytales', level:'Order', parent_name:'†Asteroxylidae', has_children:false},</v>
       </c>
     </row>
@@ -7333,11 +7586,11 @@
         <v>'†Asteroxylidae'</v>
       </c>
       <c r="F133" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G133" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Asteroxylales', level:'Order', parent_name:'†Asteroxylidae', has_children:false},</v>
       </c>
     </row>
@@ -7359,11 +7612,11 @@
         <v>'Lycopodiopsida'</v>
       </c>
       <c r="F134" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>true</v>
       </c>
       <c r="G134" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'Lycopodiidae', level:'Subclass', parent_name:'Lycopodiopsida', has_children:true},</v>
       </c>
     </row>
@@ -7385,11 +7638,11 @@
         <v>'Lycopodiidae'</v>
       </c>
       <c r="F135" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G135" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'Lycopodiales (Clubmosses, groundpines, groundcedars)', level:'Order', parent_name:'Lycopodiidae', has_children:false},</v>
       </c>
     </row>
@@ -7411,11 +7664,11 @@
         <v>'Lycopodiopsida'</v>
       </c>
       <c r="F136" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>true</v>
       </c>
       <c r="G136" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Prolepidodendridae', level:'Subclass', parent_name:'Lycopodiopsida', has_children:true},</v>
       </c>
     </row>
@@ -7437,11 +7690,11 @@
         <v>'†Prolepidodendridae'</v>
       </c>
       <c r="F137" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G137" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Protolepidodendrales', level:'Order', parent_name:'†Prolepidodendridae', has_children:false},</v>
       </c>
     </row>
@@ -7463,11 +7716,11 @@
         <v>'Lycopodiopsida'</v>
       </c>
       <c r="F138" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>true</v>
       </c>
       <c r="G138" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'Selaginellidae (Spikemosses; rose of Jericho; resurrection plant; Engels moss)', level:'Subclass', parent_name:'Lycopodiopsida', has_children:true},</v>
       </c>
     </row>
@@ -7489,11 +7742,11 @@
         <v>'Selaginellidae (Spikemosses; rose of Jericho; resurrection plant; Engels moss)'</v>
       </c>
       <c r="F139" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G139" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'Selaginellales', level:'Order', parent_name:'Selaginellidae (Spikemosses; rose of Jericho; resurrection plant; Engels moss)', has_children:false},</v>
       </c>
     </row>
@@ -7515,11 +7768,11 @@
         <v>'Selaginellidae (Spikemosses; rose of Jericho; resurrection plant; Engels moss)'</v>
       </c>
       <c r="F140" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G140" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Lepidodendrales', level:'Order', parent_name:'Selaginellidae (Spikemosses; rose of Jericho; resurrection plant; Engels moss)', has_children:false},</v>
       </c>
     </row>
@@ -7541,11 +7794,11 @@
         <v>'Selaginellidae (Spikemosses; rose of Jericho; resurrection plant; Engels moss)'</v>
       </c>
       <c r="F141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G141" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Pleuromeiales', level:'Order', parent_name:'Selaginellidae (Spikemosses; rose of Jericho; resurrection plant; Engels moss)', has_children:false},</v>
       </c>
     </row>
@@ -7567,11 +7820,11 @@
         <v>'Selaginellidae (Spikemosses; rose of Jericho; resurrection plant; Engels moss)'</v>
       </c>
       <c r="F142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G142" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'Isoetales (Quillworts)', level:'Order', parent_name:'Selaginellidae (Spikemosses; rose of Jericho; resurrection plant; Engels moss)', has_children:false},</v>
       </c>
     </row>
@@ -7593,11 +7846,11 @@
         <v>'Tracheophytina[9]'</v>
       </c>
       <c r="F143" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>true</v>
       </c>
       <c r="G143" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Eophyllophytopsida', level:'Class', parent_name:'Tracheophytina[9]', has_children:true},</v>
       </c>
     </row>
@@ -7619,11 +7872,11 @@
         <v>'†Eophyllophytopsida'</v>
       </c>
       <c r="F144" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G144" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Eophyllophytales', level:'Order', parent_name:'†Eophyllophytopsida', has_children:false},</v>
       </c>
     </row>
@@ -7645,11 +7898,11 @@
         <v>'Tracheophytina[9]'</v>
       </c>
       <c r="F145" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>true</v>
       </c>
       <c r="G145" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Trimerophytopsida', level:'Class', parent_name:'Tracheophytina[9]', has_children:true},</v>
       </c>
     </row>
@@ -7671,11 +7924,11 @@
         <v>'†Trimerophytopsida'</v>
       </c>
       <c r="F146" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G146" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Trimerophytales', level:'Order', parent_name:'†Trimerophytopsida', has_children:false},</v>
       </c>
     </row>
@@ -7697,11 +7950,11 @@
         <v>'Tracheophytina[9]'</v>
       </c>
       <c r="F147" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>true</v>
       </c>
       <c r="G147" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'Pteridophyta', level:'Clade', parent_name:'Tracheophytina[9]', has_children:true},</v>
       </c>
     </row>
@@ -7723,11 +7976,11 @@
         <v>'Pteridophyta'</v>
       </c>
       <c r="F148" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G148" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Ibykales', level:'Order', parent_name:'Pteridophyta', has_children:false},</v>
       </c>
     </row>
@@ -7749,11 +8002,11 @@
         <v>'Pteridophyta'</v>
       </c>
       <c r="F149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>true</v>
       </c>
       <c r="G149" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Cladoxylopsida', level:'Class', parent_name:'Pteridophyta', has_children:true},</v>
       </c>
     </row>
@@ -7775,11 +8028,11 @@
         <v>'†Cladoxylopsida'</v>
       </c>
       <c r="F150" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G150" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Hyeniales', level:'Order', parent_name:'†Cladoxylopsida', has_children:false},</v>
       </c>
     </row>
@@ -7801,11 +8054,11 @@
         <v>'†Cladoxylopsida'</v>
       </c>
       <c r="F151" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G151" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Iridopteridales', level:'Order', parent_name:'†Cladoxylopsida', has_children:false},</v>
       </c>
     </row>
@@ -7827,11 +8080,11 @@
         <v>'†Cladoxylopsida'</v>
       </c>
       <c r="F152" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G152" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Steloxylales', level:'Order', parent_name:'†Cladoxylopsida', has_children:false},</v>
       </c>
     </row>
@@ -7853,11 +8106,11 @@
         <v>'†Cladoxylopsida'</v>
       </c>
       <c r="F153" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G153" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Pseudosporochnales', level:'Order', parent_name:'†Cladoxylopsida', has_children:false},</v>
       </c>
     </row>
@@ -7879,11 +8132,11 @@
         <v>'†Cladoxylopsida'</v>
       </c>
       <c r="F154" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G154" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Cladoxylales', level:'Order', parent_name:'†Cladoxylopsida', has_children:false},</v>
       </c>
     </row>
@@ -7905,11 +8158,11 @@
         <v>'Tracheophytina[9]'</v>
       </c>
       <c r="F155" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>true</v>
       </c>
       <c r="G155" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'Polypodiopsida (Ferns)', level:'Class', parent_name:'Tracheophytina[9]', has_children:true},</v>
       </c>
     </row>
@@ -7931,11 +8184,11 @@
         <v>'Polypodiopsida (Ferns)'</v>
       </c>
       <c r="F156" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G156" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Stauropteridales', level:'Order', parent_name:'Polypodiopsida (Ferns)', has_children:false},</v>
       </c>
     </row>
@@ -7957,11 +8210,11 @@
         <v>'†Stauropteridales'</v>
       </c>
       <c r="F157" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>true</v>
       </c>
       <c r="G157" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Zygopterididae', level:'Subclass', parent_name:'†Stauropteridales', has_children:true},</v>
       </c>
     </row>
@@ -7983,11 +8236,11 @@
         <v>'†Zygopterididae'</v>
       </c>
       <c r="F158" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G158" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Rhacophytales', level:'Order', parent_name:'†Zygopterididae', has_children:false},</v>
       </c>
     </row>
@@ -8009,11 +8262,11 @@
         <v>'†Zygopterididae'</v>
       </c>
       <c r="F159" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G159" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Zygopteridales', level:'Order', parent_name:'†Zygopterididae', has_children:false},</v>
       </c>
     </row>
@@ -8035,11 +8288,11 @@
         <v>'Polypodiopsida (Ferns)'</v>
       </c>
       <c r="F160" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>true</v>
       </c>
       <c r="G160" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'Equisetidae', level:'Subclass', parent_name:'Polypodiopsida (Ferns)', has_children:true},</v>
       </c>
     </row>
@@ -8061,11 +8314,11 @@
         <v>'Equisetidae'</v>
       </c>
       <c r="F161" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G161" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Pseudoborniales', level:'Order', parent_name:'Equisetidae', has_children:false},</v>
       </c>
     </row>
@@ -8087,11 +8340,11 @@
         <v>'Equisetidae'</v>
       </c>
       <c r="F162" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G162" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Sphenophyllales', level:'Order', parent_name:'Equisetidae', has_children:false},</v>
       </c>
     </row>
@@ -8113,11 +8366,11 @@
         <v>'Equisetidae'</v>
       </c>
       <c r="F163" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G163" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'Equisetales (Horsetails; scouring-rushes)', level:'Order', parent_name:'Equisetidae', has_children:false},</v>
       </c>
     </row>
@@ -8139,11 +8392,11 @@
         <v>'Polypodiopsida (Ferns)'</v>
       </c>
       <c r="F164" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>true</v>
       </c>
       <c r="G164" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'Ophioglossidae', level:'Subclass', parent_name:'Polypodiopsida (Ferns)', has_children:true},</v>
       </c>
     </row>
@@ -8165,11 +8418,11 @@
         <v>'Ophioglossidae'</v>
       </c>
       <c r="F165" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G165" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'Psilotales (Whisk ferns)', level:'Order', parent_name:'Ophioglossidae', has_children:false},</v>
       </c>
     </row>
@@ -8191,11 +8444,11 @@
         <v>'Ophioglossidae'</v>
       </c>
       <c r="F166" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G166" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'Ophioglossales (Adders tongues, moonworts)', level:'Order', parent_name:'Ophioglossidae', has_children:false},</v>
       </c>
     </row>
@@ -8217,11 +8470,11 @@
         <v>'Polypodiopsida (Ferns)'</v>
       </c>
       <c r="F167" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>true</v>
       </c>
       <c r="G167" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'Marattiopsida', level:'Subclass', parent_name:'Polypodiopsida (Ferns)', has_children:true},</v>
       </c>
     </row>
@@ -8243,11 +8496,11 @@
         <v>'Marattiopsida'</v>
       </c>
       <c r="F168" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G168" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'Marattiales', level:'Order', parent_name:'Marattiopsida', has_children:false},</v>
       </c>
     </row>
@@ -8269,11 +8522,11 @@
         <v>'Polypodiopsida (Ferns)'</v>
       </c>
       <c r="F169" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>true</v>
       </c>
       <c r="G169" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'Polypodiidae', level:'Subclass', parent_name:'Polypodiopsida (Ferns)', has_children:true},</v>
       </c>
     </row>
@@ -8295,11 +8548,11 @@
         <v>'Polypodiidae'</v>
       </c>
       <c r="F170" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G170" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Urnatopteridales', level:'Order', parent_name:'Polypodiidae', has_children:false},</v>
       </c>
     </row>
@@ -8317,15 +8570,15 @@
         <v>911</v>
       </c>
       <c r="E171" t="str">
-        <f>E170</f>
+        <f t="shared" ref="E171:E180" si="8">E170</f>
         <v>'Polypodiidae'</v>
       </c>
       <c r="F171" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G171" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Senftenbergiales', level:'Order', parent_name:'Polypodiidae', has_children:false},</v>
       </c>
     </row>
@@ -8343,15 +8596,15 @@
         <v>912</v>
       </c>
       <c r="E172" t="str">
-        <f>E171</f>
+        <f t="shared" si="8"/>
         <v>'Polypodiidae'</v>
       </c>
       <c r="F172" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G172" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Botryopteridiales', level:'Order', parent_name:'Polypodiidae', has_children:false},</v>
       </c>
     </row>
@@ -8369,15 +8622,15 @@
         <v>913</v>
       </c>
       <c r="E173" t="str">
-        <f>E172</f>
+        <f t="shared" si="8"/>
         <v>'Polypodiidae'</v>
       </c>
       <c r="F173" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G173" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Anachoropteridales', level:'Order', parent_name:'Polypodiidae', has_children:false},</v>
       </c>
     </row>
@@ -8395,15 +8648,15 @@
         <v>914</v>
       </c>
       <c r="E174" t="str">
-        <f>E173</f>
+        <f t="shared" si="8"/>
         <v>'Polypodiidae'</v>
       </c>
       <c r="F174" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G174" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'Osmundales (Royal ferns)', level:'Order', parent_name:'Polypodiidae', has_children:false},</v>
       </c>
     </row>
@@ -8421,15 +8674,15 @@
         <v>915</v>
       </c>
       <c r="E175" t="str">
-        <f>E174</f>
+        <f t="shared" si="8"/>
         <v>'Polypodiidae'</v>
       </c>
       <c r="F175" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G175" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'Hymenophyllales (Filmy ferns)', level:'Order', parent_name:'Polypodiidae', has_children:false},</v>
       </c>
     </row>
@@ -8447,15 +8700,15 @@
         <v>916</v>
       </c>
       <c r="E176" t="str">
-        <f>E175</f>
+        <f t="shared" si="8"/>
         <v>'Polypodiidae'</v>
       </c>
       <c r="F176" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G176" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'Gleicheniales', level:'Order', parent_name:'Polypodiidae', has_children:false},</v>
       </c>
     </row>
@@ -8473,15 +8726,15 @@
         <v>917</v>
       </c>
       <c r="E177" t="str">
-        <f>E176</f>
+        <f t="shared" si="8"/>
         <v>'Polypodiidae'</v>
       </c>
       <c r="F177" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G177" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'Schizaeales', level:'Order', parent_name:'Polypodiidae', has_children:false},</v>
       </c>
     </row>
@@ -8499,15 +8752,15 @@
         <v>918</v>
       </c>
       <c r="E178" t="str">
-        <f>E177</f>
+        <f t="shared" si="8"/>
         <v>'Polypodiidae'</v>
       </c>
       <c r="F178" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G178" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'Salviniales', level:'Order', parent_name:'Polypodiidae', has_children:false},</v>
       </c>
     </row>
@@ -8525,15 +8778,15 @@
         <v>919</v>
       </c>
       <c r="E179" t="str">
-        <f>E178</f>
+        <f t="shared" si="8"/>
         <v>'Polypodiidae'</v>
       </c>
       <c r="F179" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G179" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'Cyatheales', level:'Order', parent_name:'Polypodiidae', has_children:false},</v>
       </c>
     </row>
@@ -8551,15 +8804,15 @@
         <v>920</v>
       </c>
       <c r="E180" t="str">
-        <f>E179</f>
+        <f t="shared" si="8"/>
         <v>'Polypodiidae'</v>
       </c>
       <c r="F180" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G180" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'Polypodiales (Cathetogyrates)', level:'Order', parent_name:'Polypodiidae', has_children:false},</v>
       </c>
     </row>
@@ -8581,11 +8834,11 @@
         <v>'Tracheophytina[9]'</v>
       </c>
       <c r="F181" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>true</v>
       </c>
       <c r="G181" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Noeggerathiopsida', level:'Class', parent_name:'Tracheophytina[9]', has_children:true},</v>
       </c>
     </row>
@@ -8607,11 +8860,11 @@
         <v>'†Noeggerathiopsida'</v>
       </c>
       <c r="F182" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G182" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Discinitiales', level:'Order', parent_name:'†Noeggerathiopsida', has_children:false},</v>
       </c>
     </row>
@@ -8633,11 +8886,11 @@
         <v>'†Noeggerathiopsida'</v>
       </c>
       <c r="F183" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G183" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Noeggerathiales', level:'Order', parent_name:'†Noeggerathiopsida', has_children:false},</v>
       </c>
     </row>
@@ -8659,11 +8912,11 @@
         <v>'†Noeggerathiopsida'</v>
       </c>
       <c r="F184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G184" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Tingiales', level:'Order', parent_name:'†Noeggerathiopsida', has_children:false},</v>
       </c>
     </row>
@@ -8685,11 +8938,11 @@
         <v>'Tracheophytina[9]'</v>
       </c>
       <c r="F185" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>true</v>
       </c>
       <c r="G185" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Aneurophytopsida', level:'Class', parent_name:'Tracheophytina[9]', has_children:true},</v>
       </c>
     </row>
@@ -8711,11 +8964,11 @@
         <v>'†Aneurophytopsida'</v>
       </c>
       <c r="F186" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G186" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Scougonophytales', level:'Order', parent_name:'†Aneurophytopsida', has_children:false},</v>
       </c>
     </row>
@@ -8737,11 +8990,11 @@
         <v>'†Aneurophytopsida'</v>
       </c>
       <c r="F187" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G187" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Aneurophytales', level:'Order', parent_name:'†Aneurophytopsida', has_children:false},</v>
       </c>
     </row>
@@ -8763,11 +9016,11 @@
         <v>'Tracheophytina[9]'</v>
       </c>
       <c r="F188" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>true</v>
       </c>
       <c r="G188" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Archaeopteridopsida', level:'Class', parent_name:'Tracheophytina[9]', has_children:true},</v>
       </c>
     </row>
@@ -8789,11 +9042,11 @@
         <v>'†Archaeopteridopsida'</v>
       </c>
       <c r="F189" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G189" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Cecropsidales', level:'Order', parent_name:'†Archaeopteridopsida', has_children:false},</v>
       </c>
     </row>
@@ -8815,11 +9068,11 @@
         <v>'†Archaeopteridopsida'</v>
       </c>
       <c r="F190" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G190" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'†Archaeopteridales', level:'Order', parent_name:'†Archaeopteridopsida', has_children:false},</v>
       </c>
     </row>
@@ -8837,7 +9090,7 @@
         <v>931</v>
       </c>
       <c r="F191" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>true</v>
       </c>
       <c r="G191" s="3"/>
@@ -8856,7 +9109,7 @@
         <v>932</v>
       </c>
       <c r="F192" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G192" s="3"/>
@@ -8875,7 +9128,7 @@
         <v>933</v>
       </c>
       <c r="F193" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G193" s="3"/>
@@ -8898,11 +9151,11 @@
         <v>'Tracheophytina[9]'</v>
       </c>
       <c r="F194" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>true</v>
       </c>
       <c r="G194" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{title:'Spermatophyta', level:'Clade', parent_name:'Tracheophytina[9]', has_children:true},</v>
       </c>
     </row>
@@ -8924,11 +9177,11 @@
         <v>'Spermatophyta'</v>
       </c>
       <c r="F195" t="str">
-        <f t="shared" ref="F195:F258" si="6">IF(B195="Order","false","true")</f>
+        <f t="shared" ref="F195:F258" si="9">IF(B195="Order","false","true")</f>
         <v>false</v>
       </c>
       <c r="G195" s="3" t="str">
-        <f t="shared" ref="G195:G258" si="7">CONCATENATE("{title:",D195,", level:'",B195,"'",", parent_name:",E195,", has_children:",F195,"},")</f>
+        <f t="shared" ref="G195:G258" si="10">CONCATENATE("{title:",D195,", level:'",B195,"'",", parent_name:",E195,", has_children:",F195,"},")</f>
         <v>{title:'†Calamopityales', level:'Order', parent_name:'Spermatophyta', has_children:false},</v>
       </c>
     </row>
@@ -8950,11 +9203,11 @@
         <v>'Spermatophyta'</v>
       </c>
       <c r="F196" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G196" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Callistophytales', level:'Order', parent_name:'Spermatophyta', has_children:false},</v>
       </c>
     </row>
@@ -8972,15 +9225,15 @@
         <v>937</v>
       </c>
       <c r="E197" t="str">
-        <f t="shared" ref="E197:E199" si="8">E196</f>
+        <f t="shared" ref="E197:E199" si="11">E196</f>
         <v>'Spermatophyta'</v>
       </c>
       <c r="F197" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G197" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Erdtmanithecales', level:'Order', parent_name:'Spermatophyta', has_children:false},</v>
       </c>
     </row>
@@ -8998,15 +9251,15 @@
         <v>938</v>
       </c>
       <c r="E198" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>'Spermatophyta'</v>
       </c>
       <c r="F198" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G198" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Hlatimbiales', level:'Order', parent_name:'Spermatophyta', has_children:false},</v>
       </c>
     </row>
@@ -9024,15 +9277,15 @@
         <v>939</v>
       </c>
       <c r="E199" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>'Spermatophyta'</v>
       </c>
       <c r="F199" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G199" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Umkomasiales', level:'Order', parent_name:'Spermatophyta', has_children:false},</v>
       </c>
     </row>
@@ -9054,11 +9307,11 @@
         <v>'Tracheophytina[9]'</v>
       </c>
       <c r="F200" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>true</v>
       </c>
       <c r="G200" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Arberiopsida', level:'Class', parent_name:'Tracheophytina[9]', has_children:true},</v>
       </c>
     </row>
@@ -9080,11 +9333,11 @@
         <v>'†Arberiopsida'</v>
       </c>
       <c r="F201" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G201" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Aberiales', level:'Order', parent_name:'†Arberiopsida', has_children:false},</v>
       </c>
     </row>
@@ -9106,11 +9359,11 @@
         <v>'†Arberiopsida'</v>
       </c>
       <c r="F202" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G202" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Dicranophyllales', level:'Order', parent_name:'†Arberiopsida', has_children:false},</v>
       </c>
     </row>
@@ -9132,11 +9385,11 @@
         <v>'Tracheophytina[9]'</v>
       </c>
       <c r="F203" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>true</v>
       </c>
       <c r="G203" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Moresnetiopsida', level:'Class', parent_name:'Tracheophytina[9]', has_children:true},</v>
       </c>
     </row>
@@ -9158,11 +9411,11 @@
         <v>'†Moresnetiopsida'</v>
       </c>
       <c r="F204" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G204" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Moresnetiales', level:'Order', parent_name:'†Moresnetiopsida', has_children:false},</v>
       </c>
     </row>
@@ -9184,11 +9437,11 @@
         <v>'†Moresnetiopsida'</v>
       </c>
       <c r="F205" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G205" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Pullarithecales', level:'Order', parent_name:'†Moresnetiopsida', has_children:false},</v>
       </c>
     </row>
@@ -9210,11 +9463,11 @@
         <v>'†Moresnetiopsida'</v>
       </c>
       <c r="F206" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G206" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Tetrastichiales', level:'Order', parent_name:'†Moresnetiopsida', has_children:false},</v>
       </c>
     </row>
@@ -9236,11 +9489,11 @@
         <v>'Tracheophytina[9]'</v>
       </c>
       <c r="F207" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>true</v>
       </c>
       <c r="G207" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Lyginopteridopsida', level:'Class', parent_name:'Tracheophytina[9]', has_children:true},</v>
       </c>
     </row>
@@ -9262,11 +9515,11 @@
         <v>'†Lyginopteridopsida'</v>
       </c>
       <c r="F208" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G208" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Hexapterospermales', level:'Order', parent_name:'†Lyginopteridopsida', has_children:false},</v>
       </c>
     </row>
@@ -9288,11 +9541,11 @@
         <v>'†Lyginopteridopsida'</v>
       </c>
       <c r="F209" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G209" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Lyginopteridales', level:'Order', parent_name:'†Lyginopteridopsida', has_children:false},</v>
       </c>
     </row>
@@ -9314,11 +9567,11 @@
         <v>'Tracheophytina[9]'</v>
       </c>
       <c r="F210" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>true</v>
       </c>
       <c r="G210" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Pachytestopsida', level:'Class', parent_name:'Tracheophytina[9]', has_children:true},</v>
       </c>
     </row>
@@ -9340,11 +9593,11 @@
         <v>'†Pachytestopsida'</v>
       </c>
       <c r="F211" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G211" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Codonospermales', level:'Order', parent_name:'†Pachytestopsida', has_children:false},</v>
       </c>
     </row>
@@ -9366,11 +9619,11 @@
         <v>'†Pachytestopsida'</v>
       </c>
       <c r="F212" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G212" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Pachytestales', level:'Order', parent_name:'†Pachytestopsida', has_children:false},</v>
       </c>
     </row>
@@ -9392,11 +9645,11 @@
         <v>'Tracheophytina[9]'</v>
       </c>
       <c r="F213" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>true</v>
       </c>
       <c r="G213" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Peltaspermopsida', level:'Class', parent_name:'Tracheophytina[9]', has_children:true},</v>
       </c>
     </row>
@@ -9418,11 +9671,11 @@
         <v>'†Peltaspermopsida'</v>
       </c>
       <c r="F214" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G214" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Peltaspermales', level:'Order', parent_name:'†Peltaspermopsida', has_children:false},</v>
       </c>
     </row>
@@ -9444,11 +9697,11 @@
         <v>'†Peltaspermopsida'</v>
       </c>
       <c r="F215" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G215" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Sporophyllitales', level:'Order', parent_name:'†Peltaspermopsida', has_children:false},</v>
       </c>
     </row>
@@ -9470,11 +9723,11 @@
         <v>'†Peltaspermopsida'</v>
       </c>
       <c r="F216" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G216" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Trichopityales', level:'Order', parent_name:'†Peltaspermopsida', has_children:false},</v>
       </c>
     </row>
@@ -9496,11 +9749,11 @@
         <v>'Tracheophytina[9]'</v>
       </c>
       <c r="F217" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>true</v>
       </c>
       <c r="G217" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Phasmatocycadopsida', level:'Class', parent_name:'Tracheophytina[9]', has_children:true},</v>
       </c>
     </row>
@@ -9522,11 +9775,11 @@
         <v>'†Phasmatocycadopsida'</v>
       </c>
       <c r="F218" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G218" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Gigantopteridales', level:'Order', parent_name:'†Phasmatocycadopsida', has_children:false},</v>
       </c>
     </row>
@@ -9548,11 +9801,11 @@
         <v>'†Phasmatocycadopsida'</v>
       </c>
       <c r="F219" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G219" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Phasmatocycadales', level:'Order', parent_name:'†Phasmatocycadopsida', has_children:false},</v>
       </c>
     </row>
@@ -9574,11 +9827,11 @@
         <v>'Tracheophytina[9]'</v>
       </c>
       <c r="F220" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>true</v>
       </c>
       <c r="G220" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Pentoxylopsida', level:'Class', parent_name:'Tracheophytina[9]', has_children:true},</v>
       </c>
     </row>
@@ -9600,11 +9853,11 @@
         <v>'†Pentoxylopsida'</v>
       </c>
       <c r="F221" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G221" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Pentoxylales', level:'Order', parent_name:'†Pentoxylopsida', has_children:false},</v>
       </c>
     </row>
@@ -9626,11 +9879,11 @@
         <v>'Tracheophytina[9]'</v>
       </c>
       <c r="F222" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>true</v>
       </c>
       <c r="G222" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Dictyopteridiopsida', level:'Class', parent_name:'Tracheophytina[9]', has_children:true},</v>
       </c>
     </row>
@@ -9652,11 +9905,11 @@
         <v>'†Dictyopteridiopsida'</v>
       </c>
       <c r="F223" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G223" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Dictyopteridiales', level:'Order', parent_name:'†Dictyopteridiopsida', has_children:false},</v>
       </c>
     </row>
@@ -9678,11 +9931,11 @@
         <v>'†Dictyopteridiopsida'</v>
       </c>
       <c r="F224" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G224" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Lidgettoniales', level:'Order', parent_name:'†Dictyopteridiopsida', has_children:false},</v>
       </c>
     </row>
@@ -9704,11 +9957,11 @@
         <v>'†Dictyopteridiopsida'</v>
       </c>
       <c r="F225" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G225" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Rigbyales', level:'Order', parent_name:'†Dictyopteridiopsida', has_children:false},</v>
       </c>
     </row>
@@ -9730,11 +9983,11 @@
         <v>'Tracheophytina[9]'</v>
       </c>
       <c r="F226" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>true</v>
       </c>
       <c r="G226" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Cycadeoideopsida', level:'Class', parent_name:'Tracheophytina[9]', has_children:true},</v>
       </c>
     </row>
@@ -9756,11 +10009,11 @@
         <v>'†Cycadeoideopsida'</v>
       </c>
       <c r="F227" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G227" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Fredlindiales', level:'Order', parent_name:'†Cycadeoideopsida', has_children:false},</v>
       </c>
     </row>
@@ -9782,11 +10035,11 @@
         <v>'†Cycadeoideopsida'</v>
       </c>
       <c r="F228" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G228" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Cycadeoideales', level:'Order', parent_name:'†Cycadeoideopsida', has_children:false},</v>
       </c>
     </row>
@@ -9808,11 +10061,11 @@
         <v>'Tracheophytina[9]'</v>
       </c>
       <c r="F229" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>true</v>
       </c>
       <c r="G229" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Caytoniopsida', level:'Class', parent_name:'Tracheophytina[9]', has_children:true},</v>
       </c>
     </row>
@@ -9834,11 +10087,11 @@
         <v>'†Caytoniopsida'</v>
       </c>
       <c r="F230" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G230" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Caytoniales', level:'Order', parent_name:'†Caytoniopsida', has_children:false},</v>
       </c>
     </row>
@@ -9860,11 +10113,11 @@
         <v>'Tracheophytina[9]'</v>
       </c>
       <c r="F231" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>true</v>
       </c>
       <c r="G231" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Axelrodiopsida', level:'Class', parent_name:'Tracheophytina[9]', has_children:true},</v>
       </c>
     </row>
@@ -9886,11 +10139,11 @@
         <v>'†Axelrodiopsida'</v>
       </c>
       <c r="F232" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G232" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Axelrodiales', level:'Order', parent_name:'†Axelrodiopsida', has_children:false},</v>
       </c>
     </row>
@@ -9912,11 +10165,11 @@
         <v>'Tracheophytina[9]'</v>
       </c>
       <c r="F233" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>true</v>
       </c>
       <c r="G233" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'Pinopsida', level:'Class', parent_name:'Tracheophytina[9]', has_children:true},</v>
       </c>
     </row>
@@ -9938,11 +10191,11 @@
         <v>'Pinopsida'</v>
       </c>
       <c r="F234" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>true</v>
       </c>
       <c r="G234" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'Pityidae', level:'†Subclass', parent_name:'Pinopsida', has_children:true},</v>
       </c>
     </row>
@@ -9964,11 +10217,11 @@
         <v>'Pinopsida'</v>
       </c>
       <c r="F235" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>true</v>
       </c>
       <c r="G235" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'Pityales', level:'†Order', parent_name:'Pinopsida', has_children:true},</v>
       </c>
     </row>
@@ -9990,11 +10243,11 @@
         <v>'Pinopsida'</v>
       </c>
       <c r="F236" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>true</v>
       </c>
       <c r="G236" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'Cycadidae', level:'Subclass', parent_name:'Pinopsida', has_children:true},</v>
       </c>
     </row>
@@ -10016,11 +10269,11 @@
         <v>'Cycadidae'</v>
       </c>
       <c r="F237" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G237" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'?†Noeggerathiopsidales', level:'Order', parent_name:'Cycadidae', has_children:false},</v>
       </c>
     </row>
@@ -10042,11 +10295,11 @@
         <v>'Cycadidae'</v>
       </c>
       <c r="F238" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G238" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Podozamitales', level:'Order', parent_name:'Cycadidae', has_children:false},</v>
       </c>
     </row>
@@ -10068,11 +10321,11 @@
         <v>'Cycadidae'</v>
       </c>
       <c r="F239" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G239" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'Cycadales (Cycads)', level:'Order', parent_name:'Cycadidae', has_children:false},</v>
       </c>
     </row>
@@ -10094,11 +10347,11 @@
         <v>'Pinopsida'</v>
       </c>
       <c r="F240" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>true</v>
       </c>
       <c r="G240" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'Ginkgoidae', level:'Subclass', parent_name:'Pinopsida', has_children:true},</v>
       </c>
     </row>
@@ -10120,11 +10373,11 @@
         <v>'Ginkgoidae'</v>
       </c>
       <c r="F241" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G241" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Hamshawviales', level:'Order', parent_name:'Ginkgoidae', has_children:false},</v>
       </c>
     </row>
@@ -10146,11 +10399,11 @@
         <v>'Ginkgoidae'</v>
       </c>
       <c r="F242" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G242" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Vladimariales', level:'Order', parent_name:'Ginkgoidae', has_children:false},</v>
       </c>
     </row>
@@ -10172,11 +10425,11 @@
         <v>'Ginkgoidae'</v>
       </c>
       <c r="F243" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G243" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Matatiellales', level:'Order', parent_name:'Ginkgoidae', has_children:false},</v>
       </c>
     </row>
@@ -10198,11 +10451,11 @@
         <v>'Ginkgoidae'</v>
       </c>
       <c r="F244" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G244" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Petriellales', level:'Order', parent_name:'Ginkgoidae', has_children:false},</v>
       </c>
     </row>
@@ -10224,11 +10477,11 @@
         <v>'Ginkgoidae'</v>
       </c>
       <c r="F245" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G245" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Czekanowskiales', level:'Order', parent_name:'Ginkgoidae', has_children:false},</v>
       </c>
     </row>
@@ -10250,11 +10503,11 @@
         <v>'Ginkgoidae'</v>
       </c>
       <c r="F246" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G246" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'Ginkgoales', level:'Order', parent_name:'Ginkgoidae', has_children:false},</v>
       </c>
     </row>
@@ -10276,11 +10529,11 @@
         <v>'Pinopsida'</v>
       </c>
       <c r="F247" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>true</v>
       </c>
       <c r="G247" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'Pinidae', level:'Subclass', parent_name:'Pinopsida', has_children:true},</v>
       </c>
     </row>
@@ -10302,11 +10555,11 @@
         <v>'Pinidae'</v>
       </c>
       <c r="F248" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G248" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Cordaitales', level:'Order', parent_name:'Pinidae', has_children:false},</v>
       </c>
     </row>
@@ -10328,11 +10581,11 @@
         <v>'Pinidae'</v>
       </c>
       <c r="F249" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G249" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Dordrechtitales', level:'Order', parent_name:'Pinidae', has_children:false},</v>
       </c>
     </row>
@@ -10350,15 +10603,15 @@
         <v>990</v>
       </c>
       <c r="E250" t="str">
-        <f t="shared" ref="E250:E262" si="9">E249</f>
+        <f t="shared" ref="E250:E262" si="12">E249</f>
         <v>'Pinidae'</v>
       </c>
       <c r="F250" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>false</v>
       </c>
       <c r="G250" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Vojnovskyales', level:'Order', parent_name:'Pinidae', has_children:false},</v>
       </c>
     </row>
@@ -10376,15 +10629,15 @@
         <v>991</v>
       </c>
       <c r="E251" t="str">
+        <f t="shared" si="12"/>
+        <v>'Pinidae'</v>
+      </c>
+      <c r="F251" t="str">
         <f t="shared" si="9"/>
-        <v>'Pinidae'</v>
-      </c>
-      <c r="F251" t="str">
-        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G251" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Buriadiales', level:'Order', parent_name:'Pinidae', has_children:false},</v>
       </c>
     </row>
@@ -10402,15 +10655,15 @@
         <v>992</v>
       </c>
       <c r="E252" t="str">
+        <f t="shared" si="12"/>
+        <v>'Pinidae'</v>
+      </c>
+      <c r="F252" t="str">
         <f t="shared" si="9"/>
-        <v>'Pinidae'</v>
-      </c>
-      <c r="F252" t="str">
-        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G252" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Ferugliocladales', level:'Order', parent_name:'Pinidae', has_children:false},</v>
       </c>
     </row>
@@ -10428,15 +10681,15 @@
         <v>993</v>
       </c>
       <c r="E253" t="str">
+        <f t="shared" si="12"/>
+        <v>'Pinidae'</v>
+      </c>
+      <c r="F253" t="str">
         <f t="shared" si="9"/>
-        <v>'Pinidae'</v>
-      </c>
-      <c r="F253" t="str">
-        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G253" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Ullmanniales', level:'Order', parent_name:'Pinidae', has_children:false},</v>
       </c>
     </row>
@@ -10454,15 +10707,15 @@
         <v>994</v>
       </c>
       <c r="E254" t="str">
+        <f t="shared" si="12"/>
+        <v>'Pinidae'</v>
+      </c>
+      <c r="F254" t="str">
         <f t="shared" si="9"/>
-        <v>'Pinidae'</v>
-      </c>
-      <c r="F254" t="str">
-        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G254" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Walchiales', level:'Order', parent_name:'Pinidae', has_children:false},</v>
       </c>
     </row>
@@ -10480,15 +10733,15 @@
         <v>995</v>
       </c>
       <c r="E255" t="str">
+        <f t="shared" si="12"/>
+        <v>'Pinidae'</v>
+      </c>
+      <c r="F255" t="str">
         <f t="shared" si="9"/>
-        <v>'Pinidae'</v>
-      </c>
-      <c r="F255" t="str">
-        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G255" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Voltziales', level:'Order', parent_name:'Pinidae', has_children:false},</v>
       </c>
     </row>
@@ -10506,15 +10759,15 @@
         <v>996</v>
       </c>
       <c r="E256" t="str">
+        <f t="shared" si="12"/>
+        <v>'Pinidae'</v>
+      </c>
+      <c r="F256" t="str">
         <f t="shared" si="9"/>
-        <v>'Pinidae'</v>
-      </c>
-      <c r="F256" t="str">
-        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G256" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Bernettiales', level:'Order', parent_name:'Pinidae', has_children:false},</v>
       </c>
     </row>
@@ -10532,15 +10785,15 @@
         <v>997</v>
       </c>
       <c r="E257" t="str">
+        <f t="shared" si="12"/>
+        <v>'Pinidae'</v>
+      </c>
+      <c r="F257" t="str">
         <f t="shared" si="9"/>
-        <v>'Pinidae'</v>
-      </c>
-      <c r="F257" t="str">
-        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G257" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Eoanthales', level:'Order', parent_name:'Pinidae', has_children:false},</v>
       </c>
     </row>
@@ -10558,15 +10811,15 @@
         <v>998</v>
       </c>
       <c r="E258" t="str">
+        <f t="shared" si="12"/>
+        <v>'Pinidae'</v>
+      </c>
+      <c r="F258" t="str">
         <f t="shared" si="9"/>
-        <v>'Pinidae'</v>
-      </c>
-      <c r="F258" t="str">
-        <f t="shared" si="6"/>
         <v>false</v>
       </c>
       <c r="G258" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{title:'†Fraxinopsiales', level:'Order', parent_name:'Pinidae', has_children:false},</v>
       </c>
     </row>
@@ -10584,15 +10837,15 @@
         <v>999</v>
       </c>
       <c r="E259" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>'Pinidae'</v>
       </c>
       <c r="F259" t="str">
-        <f t="shared" ref="F259:F322" si="10">IF(B259="Order","false","true")</f>
+        <f t="shared" ref="F259:F322" si="13">IF(B259="Order","false","true")</f>
         <v>false</v>
       </c>
       <c r="G259" s="3" t="str">
-        <f t="shared" ref="G259:G322" si="11">CONCATENATE("{title:",D259,", level:'",B259,"'",", parent_name:",E259,", has_children:",F259,"},")</f>
+        <f t="shared" ref="G259:G322" si="14">CONCATENATE("{title:",D259,", level:'",B259,"'",", parent_name:",E259,", has_children:",F259,"},")</f>
         <v>{title:'Gnetales (incl. Ephedrales &amp; Welwitschiales)', level:'Order', parent_name:'Pinidae', has_children:false},</v>
       </c>
     </row>
@@ -10610,15 +10863,15 @@
         <v>1000</v>
       </c>
       <c r="E260" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>'Pinidae'</v>
       </c>
       <c r="F260" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G260" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Pinales (Pines and allies)', level:'Order', parent_name:'Pinidae', has_children:false},</v>
       </c>
     </row>
@@ -10636,15 +10889,15 @@
         <v>1001</v>
       </c>
       <c r="E261" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>'Pinidae'</v>
       </c>
       <c r="F261" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G261" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Araucariales', level:'Order', parent_name:'Pinidae', has_children:false},</v>
       </c>
     </row>
@@ -10662,15 +10915,15 @@
         <v>1002</v>
       </c>
       <c r="E262" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>'Pinidae'</v>
       </c>
       <c r="F262" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G262" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Cupressales (Cypresses and allies)', level:'Order', parent_name:'Pinidae', has_children:false},</v>
       </c>
     </row>
@@ -10692,11 +10945,11 @@
         <v>'Tracheophytina[9]'</v>
       </c>
       <c r="F263" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G263" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Magnoliopsida[11]', level:'Class', parent_name:'Tracheophytina[9]', has_children:true},</v>
       </c>
     </row>
@@ -10718,11 +10971,11 @@
         <v>'Magnoliopsida[11]'</v>
       </c>
       <c r="F264" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G264" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'†Archaemagnoliidae', level:'Subclass', parent_name:'Magnoliopsida[11]', has_children:true},</v>
       </c>
     </row>
@@ -10744,11 +10997,11 @@
         <v>'†Archaemagnoliidae'</v>
       </c>
       <c r="F265" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G265" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'†Archaefructales', level:'Order', parent_name:'†Archaemagnoliidae', has_children:false},</v>
       </c>
     </row>
@@ -10770,11 +11023,11 @@
         <v>'Magnoliopsida[11]'</v>
       </c>
       <c r="F266" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G266" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Amborellanae', level:'Superorder', parent_name:'Magnoliopsida[11]', has_children:true},</v>
       </c>
     </row>
@@ -10796,11 +11049,11 @@
         <v>'Amborellanae'</v>
       </c>
       <c r="F267" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G267" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Amborellales', level:'Order', parent_name:'Amborellanae', has_children:false},</v>
       </c>
     </row>
@@ -10822,11 +11075,11 @@
         <v>'Magnoliopsida[11]'</v>
       </c>
       <c r="F268" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G268" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Nymphaeidae', level:'Subclass', parent_name:'Magnoliopsida[11]', has_children:true},</v>
       </c>
     </row>
@@ -10848,11 +11101,11 @@
         <v>'Nymphaeidae'</v>
       </c>
       <c r="F269" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G269" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Nymphaeales', level:'Order', parent_name:'Nymphaeidae', has_children:false},</v>
       </c>
     </row>
@@ -10874,11 +11127,11 @@
         <v>'Magnoliopsida[11]'</v>
       </c>
       <c r="F270" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G270" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Illiciidae', level:'Subclass', parent_name:'Magnoliopsida[11]', has_children:true},</v>
       </c>
     </row>
@@ -10900,11 +11153,11 @@
         <v>'Illiciidae'</v>
       </c>
       <c r="F271" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G271" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Austrobaileyales', level:'Order', parent_name:'Illiciidae', has_children:false},</v>
       </c>
     </row>
@@ -10926,11 +11179,11 @@
         <v>'Magnoliopsida[11]'</v>
       </c>
       <c r="F272" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G272" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Chloranthidae', level:'Subclass', parent_name:'Magnoliopsida[11]', has_children:true},</v>
       </c>
     </row>
@@ -10952,11 +11205,11 @@
         <v>'Chloranthidae'</v>
       </c>
       <c r="F273" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G273" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Chloranthales', level:'Order', parent_name:'Chloranthidae', has_children:false},</v>
       </c>
     </row>
@@ -10978,11 +11231,11 @@
         <v>'Magnoliopsida[11]'</v>
       </c>
       <c r="F274" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G274" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Magnoliidae', level:'Subclass', parent_name:'Magnoliopsida[11]', has_children:true},</v>
       </c>
     </row>
@@ -11004,11 +11257,11 @@
         <v>'Magnoliidae'</v>
       </c>
       <c r="F275" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G275" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Canellales', level:'Order', parent_name:'Magnoliidae', has_children:false},</v>
       </c>
     </row>
@@ -11030,11 +11283,11 @@
         <v>'Magnoliidae'</v>
       </c>
       <c r="F276" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G276" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Piperales', level:'Order', parent_name:'Magnoliidae', has_children:false},</v>
       </c>
     </row>
@@ -11056,11 +11309,11 @@
         <v>'Magnoliidae'</v>
       </c>
       <c r="F277" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G277" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Laurales', level:'Order', parent_name:'Magnoliidae', has_children:false},</v>
       </c>
     </row>
@@ -11082,11 +11335,11 @@
         <v>'Magnoliidae'</v>
       </c>
       <c r="F278" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G278" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Magnoliales', level:'Order', parent_name:'Magnoliidae', has_children:false},</v>
       </c>
     </row>
@@ -11108,11 +11361,11 @@
         <v>'Magnoliopsida[11]'</v>
       </c>
       <c r="F279" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G279" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Liliidae', level:'Subclass', parent_name:'Magnoliopsida[11]', has_children:true},</v>
       </c>
     </row>
@@ -11134,11 +11387,11 @@
         <v>'Liliidae'</v>
       </c>
       <c r="F280" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G280" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Acoranae', level:'Superorder', parent_name:'Liliidae', has_children:true},</v>
       </c>
     </row>
@@ -11160,11 +11413,11 @@
         <v>'Acoranae'</v>
       </c>
       <c r="F281" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G281" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Acorales', level:'Order', parent_name:'Acoranae', has_children:false},</v>
       </c>
     </row>
@@ -11186,11 +11439,11 @@
         <v>'Liliidae'</v>
       </c>
       <c r="F282" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G282" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Alismatanae', level:'Superorder', parent_name:'Liliidae', has_children:true},</v>
       </c>
     </row>
@@ -11212,11 +11465,11 @@
         <v>'Alismatanae'</v>
       </c>
       <c r="F283" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G283" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Alismatales', level:'Order', parent_name:'Alismatanae', has_children:false},</v>
       </c>
     </row>
@@ -11238,11 +11491,11 @@
         <v>'Liliidae'</v>
       </c>
       <c r="F284" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G284" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Petrosavianae', level:'Superorder', parent_name:'Liliidae', has_children:true},</v>
       </c>
     </row>
@@ -11264,11 +11517,11 @@
         <v>'Petrosavianae'</v>
       </c>
       <c r="F285" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G285" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Petrosaviales', level:'Order', parent_name:'Petrosavianae', has_children:false},</v>
       </c>
     </row>
@@ -11290,11 +11543,11 @@
         <v>'Liliidae'</v>
       </c>
       <c r="F286" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G286" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Pandananae', level:'Superorder', parent_name:'Liliidae', has_children:true},</v>
       </c>
     </row>
@@ -11316,11 +11569,11 @@
         <v>'Pandananae'</v>
       </c>
       <c r="F287" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G287" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Dioscoreales', level:'Order', parent_name:'Pandananae', has_children:false},</v>
       </c>
     </row>
@@ -11342,11 +11595,11 @@
         <v>'Pandananae'</v>
       </c>
       <c r="F288" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G288" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Pandanales', level:'Order', parent_name:'Pandananae', has_children:false},</v>
       </c>
     </row>
@@ -11368,11 +11621,11 @@
         <v>'Liliidae'</v>
       </c>
       <c r="F289" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G289" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Lilianae', level:'Superorder', parent_name:'Liliidae', has_children:true},</v>
       </c>
     </row>
@@ -11394,11 +11647,11 @@
         <v>'Lilianae'</v>
       </c>
       <c r="F290" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G290" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Liliales', level:'Order', parent_name:'Lilianae', has_children:false},</v>
       </c>
     </row>
@@ -11420,11 +11673,11 @@
         <v>'Liliidae'</v>
       </c>
       <c r="F291" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G291" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Orchidanae', level:'Superorder', parent_name:'Liliidae', has_children:true},</v>
       </c>
     </row>
@@ -11446,11 +11699,11 @@
         <v>'Orchidanae'</v>
       </c>
       <c r="F292" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G292" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Asparagales', level:'Order', parent_name:'Orchidanae', has_children:false},</v>
       </c>
     </row>
@@ -11472,11 +11725,11 @@
         <v>'Liliidae'</v>
       </c>
       <c r="F293" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G293" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Commelinids', level:'Superorder', parent_name:'Liliidae', has_children:true},</v>
       </c>
     </row>
@@ -11498,11 +11751,11 @@
         <v>'Commelinids'</v>
       </c>
       <c r="F294" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G294" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Arecales', level:'Order', parent_name:'Commelinids', has_children:false},</v>
       </c>
     </row>
@@ -11524,11 +11777,11 @@
         <v>'Commelinids'</v>
       </c>
       <c r="F295" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G295" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Commelinales', level:'Order', parent_name:'Commelinids', has_children:false},</v>
       </c>
     </row>
@@ -11550,11 +11803,11 @@
         <v>'Commelinids'</v>
       </c>
       <c r="F296" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G296" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Zingiberales', level:'Order', parent_name:'Commelinids', has_children:false},</v>
       </c>
     </row>
@@ -11576,11 +11829,11 @@
         <v>'Commelinids'</v>
       </c>
       <c r="F297" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G297" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Poales', level:'Order', parent_name:'Commelinids', has_children:false},</v>
       </c>
     </row>
@@ -11602,11 +11855,11 @@
         <v>'Magnoliopsida[11]'</v>
       </c>
       <c r="F298" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G298" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Ceratophyllidae', level:'Subclass', parent_name:'Magnoliopsida[11]', has_children:true},</v>
       </c>
     </row>
@@ -11628,11 +11881,11 @@
         <v>'Ceratophyllidae'</v>
       </c>
       <c r="F299" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G299" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Ceratophyllales', level:'Order', parent_name:'Ceratophyllidae', has_children:false},</v>
       </c>
     </row>
@@ -11654,11 +11907,11 @@
         <v>'Magnoliopsida[11]'</v>
       </c>
       <c r="F300" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G300" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Eudicots', level:'Clade', parent_name:'Magnoliopsida[11]', has_children:true},</v>
       </c>
     </row>
@@ -11680,11 +11933,11 @@
         <v>'Eudicots'</v>
       </c>
       <c r="F301" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G301" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'?†Sarbaicarpales', level:'Order', parent_name:'Eudicots', has_children:false},</v>
       </c>
     </row>
@@ -11706,11 +11959,11 @@
         <v>'Eudicots'</v>
       </c>
       <c r="F302" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G302" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Ranunculidae', level:'Subclass', parent_name:'Eudicots', has_children:true},</v>
       </c>
     </row>
@@ -11732,11 +11985,11 @@
         <v>'Ranunculidae'</v>
       </c>
       <c r="F303" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G303" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Ranunculales', level:'Order', parent_name:'Ranunculidae', has_children:false},</v>
       </c>
     </row>
@@ -11758,11 +12011,11 @@
         <v>'Eudicots'</v>
       </c>
       <c r="F304" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G304" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Nelumbonidae', level:'Subclass', parent_name:'Eudicots', has_children:true},</v>
       </c>
     </row>
@@ -11784,11 +12037,11 @@
         <v>'Nelumbonidae'</v>
       </c>
       <c r="F305" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G305" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Proteales', level:'Order', parent_name:'Nelumbonidae', has_children:false},</v>
       </c>
     </row>
@@ -11810,11 +12063,11 @@
         <v>'Eudicots'</v>
       </c>
       <c r="F306" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G306" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Trochodendridae', level:'Subclass', parent_name:'Eudicots', has_children:true},</v>
       </c>
     </row>
@@ -11836,11 +12089,11 @@
         <v>'Trochodendridae'</v>
       </c>
       <c r="F307" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G307" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Trochodendrales', level:'Order', parent_name:'Trochodendridae', has_children:false},</v>
       </c>
     </row>
@@ -11862,11 +12115,11 @@
         <v>'Eudicots'</v>
       </c>
       <c r="F308" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G308" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Buxanae', level:'Superorder', parent_name:'Eudicots', has_children:true},</v>
       </c>
     </row>
@@ -11888,11 +12141,11 @@
         <v>'Buxanae'</v>
       </c>
       <c r="F309" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G309" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Buxales', level:'Order', parent_name:'Buxanae', has_children:false},</v>
       </c>
     </row>
@@ -11914,11 +12167,11 @@
         <v>'Eudicots'</v>
       </c>
       <c r="F310" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G310" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Myrothamnanae', level:'Superorder', parent_name:'Eudicots', has_children:true},</v>
       </c>
     </row>
@@ -11940,11 +12193,11 @@
         <v>'Myrothamnanae'</v>
       </c>
       <c r="F311" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G311" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Gunnerales', level:'Order', parent_name:'Myrothamnanae', has_children:false},</v>
       </c>
     </row>
@@ -11966,11 +12219,11 @@
         <v>'Eudicots'</v>
       </c>
       <c r="F312" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G312" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Pentapetalae', level:'Clade', parent_name:'Eudicots', has_children:true},</v>
       </c>
     </row>
@@ -11992,11 +12245,11 @@
         <v>'Pentapetalae'</v>
       </c>
       <c r="F313" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G313" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Dilleniidae', level:'Subclass', parent_name:'Pentapetalae', has_children:true},</v>
       </c>
     </row>
@@ -12018,11 +12271,11 @@
         <v>'Dilleniidae'</v>
       </c>
       <c r="F314" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G314" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Dilleniales', level:'Order', parent_name:'Dilleniidae', has_children:false},</v>
       </c>
     </row>
@@ -12044,11 +12297,11 @@
         <v>'Pentapetalae'</v>
       </c>
       <c r="F315" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G315" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Asteridae', level:'Subclass', parent_name:'Pentapetalae', has_children:true},</v>
       </c>
     </row>
@@ -12070,11 +12323,11 @@
         <v>'Asteridae'</v>
       </c>
       <c r="F316" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G316" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Berberidopsidanae', level:'Superorder', parent_name:'Asteridae', has_children:true},</v>
       </c>
     </row>
@@ -12096,11 +12349,11 @@
         <v>'Berberidopsidanae'</v>
       </c>
       <c r="F317" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G317" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Berberidopsidales', level:'Order', parent_name:'Berberidopsidanae', has_children:false},</v>
       </c>
     </row>
@@ -12122,11 +12375,11 @@
         <v>'Asteridae'</v>
       </c>
       <c r="F318" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G318" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Santalanae', level:'Superorder', parent_name:'Asteridae', has_children:true},</v>
       </c>
     </row>
@@ -12148,11 +12401,11 @@
         <v>'Santalanae'</v>
       </c>
       <c r="F319" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G319" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Santalales', level:'Order', parent_name:'Santalanae', has_children:false},</v>
       </c>
     </row>
@@ -12174,11 +12427,11 @@
         <v>'Asteridae'</v>
       </c>
       <c r="F320" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G320" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Caryophyllanae', level:'Superorder', parent_name:'Asteridae', has_children:true},</v>
       </c>
     </row>
@@ -12200,11 +12453,11 @@
         <v>'Caryophyllanae'</v>
       </c>
       <c r="F321" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>false</v>
       </c>
       <c r="G321" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Caryophyllales', level:'Order', parent_name:'Caryophyllanae', has_children:false},</v>
       </c>
     </row>
@@ -12226,11 +12479,11 @@
         <v>'Asteridae'</v>
       </c>
       <c r="F322" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>true</v>
       </c>
       <c r="G322" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>{title:'Cornanae', level:'Superorder', parent_name:'Asteridae', has_children:true},</v>
       </c>
     </row>
@@ -12252,11 +12505,11 @@
         <v>'Cornanae'</v>
       </c>
       <c r="F323" t="str">
-        <f t="shared" ref="F323:F365" si="12">IF(B323="Order","false","true")</f>
+        <f t="shared" ref="F323:F365" si="15">IF(B323="Order","false","true")</f>
         <v>false</v>
       </c>
       <c r="G323" s="3" t="str">
-        <f t="shared" ref="G323:G365" si="13">CONCATENATE("{title:",D323,", level:'",B323,"'",", parent_name:",E323,", has_children:",F323,"},")</f>
+        <f t="shared" ref="G323:G365" si="16">CONCATENATE("{title:",D323,", level:'",B323,"'",", parent_name:",E323,", has_children:",F323,"},")</f>
         <v>{title:'Cornales', level:'Order', parent_name:'Cornanae', has_children:false},</v>
       </c>
     </row>
@@ -12278,11 +12531,11 @@
         <v>'Asteridae'</v>
       </c>
       <c r="F324" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>true</v>
       </c>
       <c r="G324" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Ericanae', level:'Superorder', parent_name:'Asteridae', has_children:true},</v>
       </c>
     </row>
@@ -12304,11 +12557,11 @@
         <v>'Ericanae'</v>
       </c>
       <c r="F325" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G325" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Ericales', level:'Order', parent_name:'Ericanae', has_children:false},</v>
       </c>
     </row>
@@ -12330,11 +12583,11 @@
         <v>'Asteridae'</v>
       </c>
       <c r="F326" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>true</v>
       </c>
       <c r="G326" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Asteranae', level:'Superorder', parent_name:'Asteridae', has_children:true},</v>
       </c>
     </row>
@@ -12356,11 +12609,11 @@
         <v>'Asteranae'</v>
       </c>
       <c r="F327" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G327" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Apiales', level:'Order', parent_name:'Asteranae', has_children:false},</v>
       </c>
     </row>
@@ -12378,15 +12631,15 @@
         <v>1068</v>
       </c>
       <c r="E328" t="str">
-        <f>E327</f>
+        <f t="shared" ref="E328:E333" si="17">E327</f>
         <v>'Asteranae'</v>
       </c>
       <c r="F328" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G328" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Aquifoliales', level:'Order', parent_name:'Asteranae', has_children:false},</v>
       </c>
     </row>
@@ -12404,15 +12657,15 @@
         <v>1069</v>
       </c>
       <c r="E329" t="str">
-        <f>E328</f>
+        <f t="shared" si="17"/>
         <v>'Asteranae'</v>
       </c>
       <c r="F329" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G329" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Asterales', level:'Order', parent_name:'Asteranae', has_children:false},</v>
       </c>
     </row>
@@ -12430,15 +12683,15 @@
         <v>1070</v>
       </c>
       <c r="E330" t="str">
-        <f>E329</f>
+        <f t="shared" si="17"/>
         <v>'Asteranae'</v>
       </c>
       <c r="F330" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G330" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Bruniales', level:'Order', parent_name:'Asteranae', has_children:false},</v>
       </c>
     </row>
@@ -12456,15 +12709,15 @@
         <v>1071</v>
       </c>
       <c r="E331" t="str">
-        <f>E330</f>
+        <f t="shared" si="17"/>
         <v>'Asteranae'</v>
       </c>
       <c r="F331" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G331" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Dipsacales', level:'Order', parent_name:'Asteranae', has_children:false},</v>
       </c>
     </row>
@@ -12482,15 +12735,15 @@
         <v>1072</v>
       </c>
       <c r="E332" t="str">
-        <f>E331</f>
+        <f t="shared" si="17"/>
         <v>'Asteranae'</v>
       </c>
       <c r="F332" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G332" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Escalloniales', level:'Order', parent_name:'Asteranae', has_children:false},</v>
       </c>
     </row>
@@ -12508,15 +12761,15 @@
         <v>1073</v>
       </c>
       <c r="E333" t="str">
-        <f>E332</f>
+        <f t="shared" si="17"/>
         <v>'Asteranae'</v>
       </c>
       <c r="F333" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G333" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Paracryphiales', level:'Order', parent_name:'Asteranae', has_children:false},</v>
       </c>
     </row>
@@ -12538,11 +12791,11 @@
         <v>'Asteridae'</v>
       </c>
       <c r="F334" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>true</v>
       </c>
       <c r="G334" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Lamianae', level:'Superorder', parent_name:'Asteridae', has_children:true},</v>
       </c>
     </row>
@@ -12564,11 +12817,11 @@
         <v>'Lamianae'</v>
       </c>
       <c r="F335" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G335" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Boraginales', level:'Order', parent_name:'Lamianae', has_children:false},</v>
       </c>
     </row>
@@ -12590,11 +12843,11 @@
         <v>'Lamianae'</v>
       </c>
       <c r="F336" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G336" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Garryales', level:'Order', parent_name:'Lamianae', has_children:false},</v>
       </c>
     </row>
@@ -12612,15 +12865,15 @@
         <v>1077</v>
       </c>
       <c r="E337" t="str">
-        <f t="shared" ref="E337:E342" si="14">E336</f>
+        <f t="shared" ref="E337:E342" si="18">E336</f>
         <v>'Lamianae'</v>
       </c>
       <c r="F337" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G337" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Gentianales', level:'Order', parent_name:'Lamianae', has_children:false},</v>
       </c>
     </row>
@@ -12638,15 +12891,15 @@
         <v>1078</v>
       </c>
       <c r="E338" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>'Lamianae'</v>
       </c>
       <c r="F338" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G338" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Icacinales', level:'Order', parent_name:'Lamianae', has_children:false},</v>
       </c>
     </row>
@@ -12664,15 +12917,15 @@
         <v>1079</v>
       </c>
       <c r="E339" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>'Lamianae'</v>
       </c>
       <c r="F339" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G339" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Lamiales', level:'Order', parent_name:'Lamianae', has_children:false},</v>
       </c>
     </row>
@@ -12690,15 +12943,15 @@
         <v>1080</v>
       </c>
       <c r="E340" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>'Lamianae'</v>
       </c>
       <c r="F340" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G340" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Metteniusales', level:'Order', parent_name:'Lamianae', has_children:false},</v>
       </c>
     </row>
@@ -12716,15 +12969,15 @@
         <v>1081</v>
       </c>
       <c r="E341" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>'Lamianae'</v>
       </c>
       <c r="F341" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G341" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Solanales', level:'Order', parent_name:'Lamianae', has_children:false},</v>
       </c>
     </row>
@@ -12742,15 +12995,15 @@
         <v>1082</v>
       </c>
       <c r="E342" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>'Lamianae'</v>
       </c>
       <c r="F342" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G342" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Vahliales', level:'Order', parent_name:'Lamianae', has_children:false},</v>
       </c>
     </row>
@@ -12772,11 +13025,11 @@
         <v>'Pentapetalae'</v>
       </c>
       <c r="F343" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>true</v>
       </c>
       <c r="G343" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Rosidae', level:'Subclass', parent_name:'Pentapetalae', has_children:true},</v>
       </c>
     </row>
@@ -12798,11 +13051,11 @@
         <v>'Rosidae'</v>
       </c>
       <c r="F344" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>true</v>
       </c>
       <c r="G344" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Saxifraganae', level:'Superorder', parent_name:'Rosidae', has_children:true},</v>
       </c>
     </row>
@@ -12824,11 +13077,11 @@
         <v>'Saxifraganae'</v>
       </c>
       <c r="F345" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G345" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Saxifragales', level:'Order', parent_name:'Saxifraganae', has_children:false},</v>
       </c>
     </row>
@@ -12850,11 +13103,11 @@
         <v>'Rosidae'</v>
       </c>
       <c r="F346" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>true</v>
       </c>
       <c r="G346" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Vitanae', level:'Superorder', parent_name:'Rosidae', has_children:true},</v>
       </c>
     </row>
@@ -12876,11 +13129,11 @@
         <v>'Vitanae'</v>
       </c>
       <c r="F347" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G347" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Vitales', level:'Order', parent_name:'Vitanae', has_children:false},</v>
       </c>
     </row>
@@ -12902,11 +13155,11 @@
         <v>'Rosidae'</v>
       </c>
       <c r="F348" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>true</v>
       </c>
       <c r="G348" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Rosanae', level:'Superorder', parent_name:'Rosidae', has_children:true},</v>
       </c>
     </row>
@@ -12928,11 +13181,11 @@
         <v>'Rosanae'</v>
       </c>
       <c r="F349" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G349" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Zygophyllales', level:'Order', parent_name:'Rosanae', has_children:false},</v>
       </c>
     </row>
@@ -12954,11 +13207,11 @@
         <v>'Rosanae'</v>
       </c>
       <c r="F350" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G350" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Celastrales', level:'Order', parent_name:'Rosanae', has_children:false},</v>
       </c>
     </row>
@@ -12976,15 +13229,15 @@
         <v>1091</v>
       </c>
       <c r="E351" t="str">
-        <f t="shared" ref="E351:E356" si="15">E350</f>
+        <f t="shared" ref="E351:E356" si="19">E350</f>
         <v>'Rosanae'</v>
       </c>
       <c r="F351" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G351" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Malpighiales', level:'Order', parent_name:'Rosanae', has_children:false},</v>
       </c>
     </row>
@@ -13002,15 +13255,15 @@
         <v>1092</v>
       </c>
       <c r="E352" t="str">
+        <f t="shared" si="19"/>
+        <v>'Rosanae'</v>
+      </c>
+      <c r="F352" t="str">
         <f t="shared" si="15"/>
-        <v>'Rosanae'</v>
-      </c>
-      <c r="F352" t="str">
-        <f t="shared" si="12"/>
         <v>false</v>
       </c>
       <c r="G352" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Oxalidales', level:'Order', parent_name:'Rosanae', has_children:false},</v>
       </c>
     </row>
@@ -13028,15 +13281,15 @@
         <v>1093</v>
       </c>
       <c r="E353" t="str">
+        <f t="shared" si="19"/>
+        <v>'Rosanae'</v>
+      </c>
+      <c r="F353" t="str">
         <f t="shared" si="15"/>
-        <v>'Rosanae'</v>
-      </c>
-      <c r="F353" t="str">
-        <f t="shared" si="12"/>
         <v>false</v>
       </c>
       <c r="G353" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Fabales', level:'Order', parent_name:'Rosanae', has_children:false},</v>
       </c>
     </row>
@@ -13054,15 +13307,15 @@
         <v>1094</v>
       </c>
       <c r="E354" t="str">
+        <f t="shared" si="19"/>
+        <v>'Rosanae'</v>
+      </c>
+      <c r="F354" t="str">
         <f t="shared" si="15"/>
-        <v>'Rosanae'</v>
-      </c>
-      <c r="F354" t="str">
-        <f t="shared" si="12"/>
         <v>false</v>
       </c>
       <c r="G354" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Cucurbitales', level:'Order', parent_name:'Rosanae', has_children:false},</v>
       </c>
     </row>
@@ -13080,15 +13333,15 @@
         <v>1095</v>
       </c>
       <c r="E355" t="str">
+        <f t="shared" si="19"/>
+        <v>'Rosanae'</v>
+      </c>
+      <c r="F355" t="str">
         <f t="shared" si="15"/>
-        <v>'Rosanae'</v>
-      </c>
-      <c r="F355" t="str">
-        <f t="shared" si="12"/>
         <v>false</v>
       </c>
       <c r="G355" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Fagales', level:'Order', parent_name:'Rosanae', has_children:false},</v>
       </c>
     </row>
@@ -13106,15 +13359,15 @@
         <v>1096</v>
       </c>
       <c r="E356" t="str">
+        <f t="shared" si="19"/>
+        <v>'Rosanae'</v>
+      </c>
+      <c r="F356" t="str">
         <f t="shared" si="15"/>
-        <v>'Rosanae'</v>
-      </c>
-      <c r="F356" t="str">
-        <f t="shared" si="12"/>
         <v>false</v>
       </c>
       <c r="G356" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Rosales', level:'Order', parent_name:'Rosanae', has_children:false},</v>
       </c>
     </row>
@@ -13136,11 +13389,11 @@
         <v>'Rosidae'</v>
       </c>
       <c r="F357" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>true</v>
       </c>
       <c r="G357" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Myrtanae', level:'Superorder', parent_name:'Rosidae', has_children:true},</v>
       </c>
     </row>
@@ -13162,11 +13415,11 @@
         <v>'Myrtanae'</v>
       </c>
       <c r="F358" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G358" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Geraniales', level:'Order', parent_name:'Myrtanae', has_children:false},</v>
       </c>
     </row>
@@ -13184,15 +13437,15 @@
         <v>1099</v>
       </c>
       <c r="E359" t="str">
-        <f>E358</f>
+        <f t="shared" ref="E359:E365" si="20">E358</f>
         <v>'Myrtanae'</v>
       </c>
       <c r="F359" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G359" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Myrtales', level:'Order', parent_name:'Myrtanae', has_children:false},</v>
       </c>
     </row>
@@ -13210,15 +13463,15 @@
         <v>1100</v>
       </c>
       <c r="E360" t="str">
-        <f>E359</f>
+        <f t="shared" si="20"/>
         <v>'Myrtanae'</v>
       </c>
       <c r="F360" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G360" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Crossosomatales', level:'Order', parent_name:'Myrtanae', has_children:false},</v>
       </c>
     </row>
@@ -13236,15 +13489,15 @@
         <v>1101</v>
       </c>
       <c r="E361" t="str">
-        <f>E360</f>
+        <f t="shared" si="20"/>
         <v>'Myrtanae'</v>
       </c>
       <c r="F361" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G361" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Picramniales', level:'Order', parent_name:'Myrtanae', has_children:false},</v>
       </c>
     </row>
@@ -13262,15 +13515,15 @@
         <v>1102</v>
       </c>
       <c r="E362" t="str">
-        <f>E361</f>
+        <f t="shared" si="20"/>
         <v>'Myrtanae'</v>
       </c>
       <c r="F362" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G362" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Sapindales', level:'Order', parent_name:'Myrtanae', has_children:false},</v>
       </c>
     </row>
@@ -13288,15 +13541,15 @@
         <v>1103</v>
       </c>
       <c r="E363" t="str">
-        <f>E362</f>
+        <f t="shared" si="20"/>
         <v>'Myrtanae'</v>
       </c>
       <c r="F363" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G363" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Huerteales', level:'Order', parent_name:'Myrtanae', has_children:false},</v>
       </c>
     </row>
@@ -13314,15 +13567,15 @@
         <v>1104</v>
       </c>
       <c r="E364" t="str">
-        <f>E363</f>
+        <f t="shared" si="20"/>
         <v>'Myrtanae'</v>
       </c>
       <c r="F364" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G364" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Malvales', level:'Order', parent_name:'Myrtanae', has_children:false},</v>
       </c>
     </row>
@@ -13340,16 +13593,861 @@
         <v>1105</v>
       </c>
       <c r="E365" t="str">
-        <f>E364</f>
+        <f t="shared" si="20"/>
         <v>'Myrtanae'</v>
       </c>
       <c r="F365" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="G365" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>{title:'Brassicales', level:'Order', parent_name:'Myrtanae', has_children:false},</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D283"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="str">
+        <f>A5</f>
+        <v>Angiosperms</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C7" t="str">
+        <f>A6</f>
+        <v>Amborellales</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>645</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="str">
+        <f>A5</f>
+        <v>Angiosperms</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C9" t="str">
+        <f>A8</f>
+        <v>Nymphaeales</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C10" t="str">
+        <f>C9</f>
+        <v>Nymphaeales</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C11" t="str">
+        <f>C10</f>
+        <v>Nymphaeales</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>1181</v>
       </c>
     </row>
   </sheetData>
